--- a/Charlie Testcases.xlsx
+++ b/Charlie Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8J7612897\Marist\MSCS_510_256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C265E2E-18FD-4353-918A-DCC41C49755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831E9D9-9C6A-4EEB-9F61-F0015E0BE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6D9A9A65-19B4-4FFE-89AF-93B53327AAD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Testcase Name</t>
   </si>
@@ -200,7 +200,39 @@
     <t>One card is dealt to the user</t>
   </si>
   <si>
-    <t>Bugs Found</t>
+    <t>Dependant Files</t>
+  </si>
+  <si>
+    <t>UserBlackjack.props
+ UserBJ.shoe</t>
+  </si>
+  <si>
+    <t>DealerBJShoe
+DealerBlackjack.props</t>
+  </si>
+  <si>
+    <t>NoBJShoe
+NoBlackjack.props</t>
+  </si>
+  <si>
+    <t>EveryoneBlackjack.props
+EveryoneBJShoe</t>
+  </si>
+  <si>
+    <t>DoubleD.props
+DoubleD.shoe</t>
+  </si>
+  <si>
+    <t>Charlie.props
+RandomShoe</t>
+  </si>
+  <si>
+    <t>Split.props
+Split.shoe</t>
+  </si>
+  <si>
+    <t>HitTest.props
+HitShoe</t>
   </si>
 </sst>
 </file>
@@ -242,12 +274,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,16 +627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85673A9-D946-4962-B98D-BD5450388B4F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -606,196 +649,229 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
